--- a/data/trans_dic/P36$cafe-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,24; 94,39</t>
+          <t>91,06; 94,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,42; 93,95</t>
+          <t>90,72; 94,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,41; 93,28</t>
+          <t>89,13; 93,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,43; 94,98</t>
+          <t>92,07; 94,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,18; 96,45</t>
+          <t>94,08; 96,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,67; 97,13</t>
+          <t>94,61; 97,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,26; 94,36</t>
+          <t>92,31; 94,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,09; 95,21</t>
+          <t>93,11; 95,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,87; 95,18</t>
+          <t>92,93; 95,15</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,48; 92,39</t>
+          <t>89,52; 92,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,52; 92,3</t>
+          <t>89,6; 92,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,27; 91,19</t>
+          <t>88,33; 91,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,36; 91,27</t>
+          <t>88,33; 91,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,24; 92,94</t>
+          <t>90,15; 92,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,44; 93,81</t>
+          <t>91,51; 93,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,37; 91,37</t>
+          <t>89,34; 91,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,24; 92,2</t>
+          <t>90,28; 92,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,28; 92,04</t>
+          <t>90,2; 91,98</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,68; 92,88</t>
+          <t>87,73; 92,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,54; 93,83</t>
+          <t>88,51; 94,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,62; 95,82</t>
+          <t>91,48; 95,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,62; 94,03</t>
+          <t>88,76; 93,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,33; 97,43</t>
+          <t>93,4; 97,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,36; 94,73</t>
+          <t>90,67; 94,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,02; 92,72</t>
+          <t>89,01; 92,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,71; 95,06</t>
+          <t>91,8; 95,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,73</t>
+          <t>91,54; 94,75</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,49; 92,46</t>
+          <t>90,48; 92,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,37; 92,45</t>
+          <t>90,34; 92,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,84; 91,84</t>
+          <t>89,76; 91,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,57; 92,49</t>
+          <t>90,66; 92,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,76; 94,36</t>
+          <t>92,59; 94,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,8; 94,49</t>
+          <t>92,79; 94,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,89; 92,19</t>
+          <t>90,89; 92,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,86; 93,19</t>
+          <t>91,86; 93,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,6; 92,92</t>
+          <t>91,62; 92,9</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, café, leche, té, chololate, yogurt,...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2169</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>954346</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>899733</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>688162</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1230289</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1273833</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>954298</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2184635</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2173567</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1642460</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>935853; 969811</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>882378; 915597</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>670733; 702549</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1208957; 1245822</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1256652; 1289229</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>939954; 965836</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2160914; 2209713</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2149405; 2197341</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1622654; 1661284</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1757</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3520</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1539318</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1784564</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1863620</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1424840</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1608673</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1839911</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2964158</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3393237</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3703532</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1515109; 1562601</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1757236; 1810917</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1832143; 1890578</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1400593; 1448199</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1581981; 1629233</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1817615; 1864567</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2928490; 2999124</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3354901; 3426260</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3662714; 3734823</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>497992</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>439526</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>513029</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>435817</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>438127</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>509854</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>933809</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>877653</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1022884</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>482211; 510887</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>424972; 451810</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>500293; 523709</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>422858; 446700</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>427268; 445050</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>497893; 520947</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>913248; 951138</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>860766; 891235</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1003316; 1038504</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2928</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3077</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2991657</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3123824</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3064812</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3090946</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3320634</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3304064</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6082602</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6444457</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6368876</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2958647; 3022335</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3084153; 3154136</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3028317; 3097145</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3060053; 3122923</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3285065; 3348488</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3274397; 3329634</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6039320; 6124212</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6395451; 6490695</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6324201; 6412535</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>